--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.273104326763</v>
+        <v>702.345525349667</v>
       </c>
       <c r="AB2" t="n">
-        <v>889.7323493645416</v>
+        <v>960.9801330811613</v>
       </c>
       <c r="AC2" t="n">
-        <v>804.8175426883843</v>
+        <v>869.265537923982</v>
       </c>
       <c r="AD2" t="n">
-        <v>650273.1043267631</v>
+        <v>702345.5253496671</v>
       </c>
       <c r="AE2" t="n">
-        <v>889732.3493645416</v>
+        <v>960980.1330811613</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.08614731332713e-06</v>
+        <v>3.526735539884101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.7125</v>
       </c>
       <c r="AH2" t="n">
-        <v>804817.5426883843</v>
+        <v>869265.537923982</v>
       </c>
     </row>
     <row r="3">
@@ -2258,28 +2258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.0762001406053</v>
+        <v>244.9052580583177</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.590942576497</v>
+        <v>335.0901785326786</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.3303333201773</v>
+        <v>303.1096421956389</v>
       </c>
       <c r="AD3" t="n">
-        <v>224076.2001406053</v>
+        <v>244905.2580583177</v>
       </c>
       <c r="AE3" t="n">
-        <v>306590.942576497</v>
+        <v>335090.1785326786</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.919768682642424e-06</v>
+        <v>6.626563442038175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.169444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>277330.3333201773</v>
+        <v>303109.6421956389</v>
       </c>
     </row>
     <row r="4">
@@ -2364,28 +2364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.6885450265464</v>
+        <v>208.8466567857169</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.1213063705632</v>
+        <v>285.7532094783153</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.9181501135237</v>
+        <v>258.4813242229374</v>
       </c>
       <c r="AD4" t="n">
-        <v>177688.5450265464</v>
+        <v>208846.6567857169</v>
       </c>
       <c r="AE4" t="n">
-        <v>243121.3063705632</v>
+        <v>285753.2094783153</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.356254889738562e-06</v>
+        <v>7.364465031921617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.651388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>219918.1501135237</v>
+        <v>258481.3242229374</v>
       </c>
     </row>
     <row r="5">
@@ -2470,28 +2470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.5174369408196</v>
+        <v>208.67554869999</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.8871887389157</v>
+        <v>285.5190918466679</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.7063763400545</v>
+        <v>258.2695504494681</v>
       </c>
       <c r="AD5" t="n">
-        <v>177517.4369408195</v>
+        <v>208675.54869999</v>
       </c>
       <c r="AE5" t="n">
-        <v>242887.1887389157</v>
+        <v>285519.0918466679</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.369384488214047e-06</v>
+        <v>7.386661269585223e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.637499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>219706.3763400545</v>
+        <v>258269.5504494681</v>
       </c>
     </row>
   </sheetData>
@@ -2767,28 +2767,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.9638007991786</v>
+        <v>430.3260721746191</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.5656762421319</v>
+        <v>588.7911165957499</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.6429169657118</v>
+        <v>532.5977188013732</v>
       </c>
       <c r="AD2" t="n">
-        <v>389963.8007991785</v>
+        <v>430326.0721746191</v>
       </c>
       <c r="AE2" t="n">
-        <v>533565.6762421319</v>
+        <v>588791.11659575</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.781370807454805e-06</v>
+        <v>4.816752952826225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.536111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>482642.9169657119</v>
+        <v>532597.7188013732</v>
       </c>
     </row>
     <row r="3">
@@ -2873,28 +2873,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.2119877641917</v>
+        <v>200.3983504412</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.8915508817872</v>
+        <v>274.193864024782</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.6647081310412</v>
+        <v>248.0251864758423</v>
       </c>
       <c r="AD3" t="n">
-        <v>170211.9877641917</v>
+        <v>200398.3504412</v>
       </c>
       <c r="AE3" t="n">
-        <v>232891.5508817872</v>
+        <v>274193.864024782</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.383941431674152e-06</v>
+        <v>7.592070348705861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.780555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>210664.7081310412</v>
+        <v>248025.1864758423</v>
       </c>
     </row>
     <row r="4">
@@ -2979,28 +2979,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.5620167941416</v>
+        <v>199.74837947115</v>
       </c>
       <c r="AB4" t="n">
-        <v>232.0022319258698</v>
+        <v>273.3045450688645</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.8602645281092</v>
+        <v>247.2207428729103</v>
       </c>
       <c r="AD4" t="n">
-        <v>169562.0167941416</v>
+        <v>199748.37947115</v>
       </c>
       <c r="AE4" t="n">
-        <v>232002.2319258697</v>
+        <v>273304.5450688645</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.406880572354192e-06</v>
+        <v>7.631796146254944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.755555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>209860.2645281092</v>
+        <v>247220.7428729103</v>
       </c>
     </row>
   </sheetData>
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.8903624939473</v>
+        <v>199.236459332093</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.187977231705</v>
+        <v>272.6041133502845</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.7419667731782</v>
+        <v>246.5871593744893</v>
       </c>
       <c r="AD2" t="n">
-        <v>171890.3624939473</v>
+        <v>199236.459332093</v>
       </c>
       <c r="AE2" t="n">
-        <v>235187.977231705</v>
+        <v>272604.1133502845</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.151218552367027e-06</v>
+        <v>7.854998800634473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.634722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>212741.9667731782</v>
+        <v>246587.1593744893</v>
       </c>
     </row>
     <row r="3">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.3273052125864</v>
+        <v>199.6734020507321</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.785821535899</v>
+        <v>273.2019576544785</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.2827536560599</v>
+        <v>247.127946257371</v>
       </c>
       <c r="AD3" t="n">
-        <v>172327.3052125864</v>
+        <v>199673.4020507321</v>
       </c>
       <c r="AE3" t="n">
-        <v>235785.821535899</v>
+        <v>273201.9576544785</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.160143731194477e-06</v>
+        <v>7.871887159582735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.622222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>213282.7536560599</v>
+        <v>247127.946257371</v>
       </c>
     </row>
   </sheetData>
@@ -3679,28 +3679,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.3156343269216</v>
+        <v>211.6349344632463</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.8205382009919</v>
+        <v>289.5682540068388</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.8825780639985</v>
+        <v>261.9322662561083</v>
       </c>
       <c r="AD2" t="n">
-        <v>183315.6343269216</v>
+        <v>211634.9344632463</v>
       </c>
       <c r="AE2" t="n">
-        <v>250820.5382009919</v>
+        <v>289568.2540068388</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.147585255184799e-06</v>
+        <v>7.555999584031071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.394444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>226882.5780639985</v>
+        <v>261932.2662561084</v>
       </c>
     </row>
     <row r="3">
@@ -3785,28 +3785,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.1756014326978</v>
+        <v>190.1689524991935</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.2100096146713</v>
+        <v>260.1975504713488</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.8573350129278</v>
+        <v>235.3646614439949</v>
       </c>
       <c r="AD3" t="n">
-        <v>171175.6014326978</v>
+        <v>190168.9524991935</v>
       </c>
       <c r="AE3" t="n">
-        <v>234210.0096146713</v>
+        <v>260197.5504713488</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345096986505698e-06</v>
+        <v>7.915823063930939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>211857.3350129278</v>
+        <v>235364.6614439949</v>
       </c>
     </row>
   </sheetData>
@@ -4082,28 +4082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.2145440379006</v>
+        <v>213.5372425930816</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.1551984753075</v>
+        <v>292.1710759139897</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.7081058489778</v>
+        <v>264.2866784935251</v>
       </c>
       <c r="AD2" t="n">
-        <v>187214.5440379006</v>
+        <v>213537.2425930816</v>
       </c>
       <c r="AE2" t="n">
-        <v>256155.1984753075</v>
+        <v>292171.0759139897</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.873797079389099e-06</v>
+        <v>7.591394136371999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.270833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>231708.1058489778</v>
+        <v>264286.6784935251</v>
       </c>
     </row>
     <row r="3">
@@ -4188,28 +4188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.1029647561516</v>
+        <v>214.4256633113327</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.3707748963739</v>
+        <v>293.3866523350561</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.8076693624902</v>
+        <v>265.3862420070375</v>
       </c>
       <c r="AD3" t="n">
-        <v>188102.9647561516</v>
+        <v>214425.6633113327</v>
       </c>
       <c r="AE3" t="n">
-        <v>257370.7748963739</v>
+        <v>293386.652335056</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.880268274112897e-06</v>
+        <v>7.604075593008675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.259722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>232807.6693624902</v>
+        <v>265386.2420070375</v>
       </c>
     </row>
   </sheetData>
@@ -4485,28 +4485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>448.1109338596287</v>
+        <v>488.7285084736725</v>
       </c>
       <c r="AB2" t="n">
-        <v>613.1251489659027</v>
+        <v>668.6999064737619</v>
       </c>
       <c r="AC2" t="n">
-        <v>554.6093452751472</v>
+        <v>604.8801259261185</v>
       </c>
       <c r="AD2" t="n">
-        <v>448110.9338596287</v>
+        <v>488728.5084736726</v>
       </c>
       <c r="AE2" t="n">
-        <v>613125.1489659026</v>
+        <v>668699.9064737619</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.591870242345053e-06</v>
+        <v>4.459264043687055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.013888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>554609.3452751472</v>
+        <v>604880.1259261185</v>
       </c>
     </row>
     <row r="3">
@@ -4591,28 +4591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.0148954994677</v>
+        <v>206.4566741149439</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.8313452514092</v>
+        <v>282.4831297495714</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.8467396696004</v>
+        <v>255.523336313918</v>
       </c>
       <c r="AD3" t="n">
-        <v>176014.8954994677</v>
+        <v>206456.6741149439</v>
       </c>
       <c r="AE3" t="n">
-        <v>240831.3452514092</v>
+        <v>282483.1297495714</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.323173757947265e-06</v>
+        <v>7.437939206394577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.804166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>217846.7396696004</v>
+        <v>255523.336313918</v>
       </c>
     </row>
     <row r="4">
@@ -4697,28 +4697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.920713003744</v>
+        <v>202.3624916192202</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.2295041381788</v>
+        <v>276.881288636341</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.7795304099815</v>
+        <v>250.4561270542991</v>
       </c>
       <c r="AD4" t="n">
-        <v>171920.713003744</v>
+        <v>202362.4916192202</v>
       </c>
       <c r="AE4" t="n">
-        <v>235229.5041381788</v>
+        <v>276881.288636341</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.387783564334631e-06</v>
+        <v>7.549099164090642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>212779.5304099815</v>
+        <v>250456.1270542991</v>
       </c>
     </row>
     <row r="5">
@@ -4803,28 +4803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.9209716696243</v>
+        <v>202.3627502851005</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.2298580562477</v>
+        <v>276.88164255441</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.7798505506067</v>
+        <v>250.4564471949243</v>
       </c>
       <c r="AD5" t="n">
-        <v>171920.9716696243</v>
+        <v>202362.7502851005</v>
       </c>
       <c r="AE5" t="n">
-        <v>235229.8580562477</v>
+        <v>276881.64255441</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.399897903032262e-06</v>
+        <v>7.569941656158653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.720833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>212779.8505506067</v>
+        <v>250456.4471949243</v>
       </c>
     </row>
   </sheetData>
@@ -5100,28 +5100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.8734090721086</v>
+        <v>229.2579701492216</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.6343955003842</v>
+        <v>313.6808689058411</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.18718301763</v>
+        <v>283.7436070314251</v>
       </c>
       <c r="AD2" t="n">
-        <v>194873.4090721086</v>
+        <v>229257.9701492217</v>
       </c>
       <c r="AE2" t="n">
-        <v>266634.3955003842</v>
+        <v>313680.8689058411</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.635754120775008e-06</v>
+        <v>7.288452225000121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.837499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>241187.18301763</v>
+        <v>283743.6070314252</v>
       </c>
     </row>
   </sheetData>
@@ -5397,28 +5397,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1156873178274</v>
+        <v>300.4731912047517</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.9524441682275</v>
+        <v>411.1206761479808</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.5492635318363</v>
+        <v>371.8838958279097</v>
       </c>
       <c r="AD2" t="n">
-        <v>271115.6873178274</v>
+        <v>300473.1912047517</v>
       </c>
       <c r="AE2" t="n">
-        <v>370952.4441682275</v>
+        <v>411120.6761479807</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.400558113675215e-06</v>
+        <v>6.022641104250068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.351388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>335549.2635318363</v>
+        <v>371883.8958279097</v>
       </c>
     </row>
     <row r="3">
@@ -5503,28 +5503,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.8381213652752</v>
+        <v>194.1955357436481</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.5387897965401</v>
+        <v>265.7068993067244</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.0136842441027</v>
+        <v>240.3482057589436</v>
       </c>
       <c r="AD3" t="n">
-        <v>164838.1213652752</v>
+        <v>194195.5357436481</v>
       </c>
       <c r="AE3" t="n">
-        <v>225538.7897965401</v>
+        <v>265706.8993067244</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.398646020930872e-06</v>
+        <v>7.790328952818022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.909722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>204013.6842441027</v>
+        <v>240348.2057589436</v>
       </c>
     </row>
     <row r="4">
@@ -5609,28 +5609,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.9162441909195</v>
+        <v>194.2736585692923</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.6456808931224</v>
+        <v>265.8137904033067</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.1103738044499</v>
+        <v>240.4448953192907</v>
       </c>
       <c r="AD4" t="n">
-        <v>164916.2441909195</v>
+        <v>194273.6585692923</v>
       </c>
       <c r="AE4" t="n">
-        <v>225645.6808931224</v>
+        <v>265813.7904033067</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.409841273980008e-06</v>
+        <v>7.810156577852592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.897222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>204110.3738044499</v>
+        <v>240444.8953192907</v>
       </c>
     </row>
   </sheetData>
@@ -5906,28 +5906,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.3123249157662</v>
+        <v>379.3189895057943</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.9445335219041</v>
+        <v>519.0009758145929</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.3301780419386</v>
+        <v>469.4682511052918</v>
       </c>
       <c r="AD2" t="n">
-        <v>349312.3249157663</v>
+        <v>379318.9895057942</v>
       </c>
       <c r="AE2" t="n">
-        <v>477944.5335219041</v>
+        <v>519000.9758145929</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.974916093208167e-06</v>
+        <v>5.187993899248752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.112500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>432330.1780419386</v>
+        <v>469468.2511052918</v>
       </c>
     </row>
     <row r="3">
@@ -6012,28 +6012,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.4989113034162</v>
+        <v>197.4201455303211</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.1793999756701</v>
+        <v>270.1189526765917</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.3068396973662</v>
+        <v>244.3391789475481</v>
       </c>
       <c r="AD3" t="n">
-        <v>167498.9113034162</v>
+        <v>197420.1455303211</v>
       </c>
       <c r="AE3" t="n">
-        <v>229179.3999756701</v>
+        <v>270118.9526765918</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.40531949358362e-06</v>
+        <v>7.68249252781671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.802777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>207306.8396973662</v>
+        <v>244339.1789475481</v>
       </c>
     </row>
     <row r="4">
@@ -6118,28 +6118,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.9853770657814</v>
+        <v>197.9066112926863</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.8450038930926</v>
+        <v>270.7845565940143</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.9089193110911</v>
+        <v>244.9412585612729</v>
       </c>
       <c r="AD4" t="n">
-        <v>167985.3770657814</v>
+        <v>197906.6112926863</v>
       </c>
       <c r="AE4" t="n">
-        <v>229845.0038930926</v>
+        <v>270784.5565940143</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.406233586714118e-06</v>
+        <v>7.684086626418415e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.802777777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>207908.9193110911</v>
+        <v>244941.2585612729</v>
       </c>
     </row>
   </sheetData>
@@ -6415,28 +6415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>575.6444324318159</v>
+        <v>616.9942232357645</v>
       </c>
       <c r="AB2" t="n">
-        <v>787.6221080932359</v>
+        <v>844.1987160952212</v>
       </c>
       <c r="AC2" t="n">
-        <v>712.4525595313883</v>
+        <v>763.629575471432</v>
       </c>
       <c r="AD2" t="n">
-        <v>575644.4324318159</v>
+        <v>616994.2232357644</v>
       </c>
       <c r="AE2" t="n">
-        <v>787622.1080932359</v>
+        <v>844198.7160952212</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.247963024406434e-06</v>
+        <v>3.821388154642084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.08472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>712452.5595313882</v>
+        <v>763629.5754714319</v>
       </c>
     </row>
     <row r="3">
@@ -6521,28 +6521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.8555677055244</v>
+        <v>230.5305078617738</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.1336459088037</v>
+        <v>315.4220111445559</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.730013737955</v>
+        <v>285.318577098586</v>
       </c>
       <c r="AD3" t="n">
-        <v>209855.5677055244</v>
+        <v>230530.5078617738</v>
       </c>
       <c r="AE3" t="n">
-        <v>287133.6459088037</v>
+        <v>315422.0111445559</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.063303086962685e-06</v>
+        <v>6.907345946822141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.026388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>259730.013737955</v>
+        <v>285318.577098586</v>
       </c>
     </row>
     <row r="4">
@@ -6627,28 +6627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.131061780025</v>
+        <v>206.0579968970011</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.6220449644766</v>
+        <v>281.9376419915848</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.7528533047886</v>
+        <v>255.0299091419566</v>
       </c>
       <c r="AD4" t="n">
-        <v>175131.061780025</v>
+        <v>206057.9968970011</v>
       </c>
       <c r="AE4" t="n">
-        <v>239622.0449644766</v>
+        <v>281937.6419915848</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.382402960251229e-06</v>
+        <v>7.449794582628599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.659722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>216752.8533047886</v>
+        <v>255029.9091419565</v>
       </c>
     </row>
     <row r="5">
@@ -6733,28 +6733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.9443358956323</v>
+        <v>205.8712710126084</v>
       </c>
       <c r="AB5" t="n">
-        <v>239.366558371686</v>
+        <v>281.6821553987942</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.5217499938362</v>
+        <v>254.7988058310041</v>
       </c>
       <c r="AD5" t="n">
-        <v>174944.3358956323</v>
+        <v>205871.2710126084</v>
       </c>
       <c r="AE5" t="n">
-        <v>239366.558371686</v>
+        <v>281682.1553987942</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.395343415942193e-06</v>
+        <v>7.471792499656693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.647222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>216521.7499938362</v>
+        <v>254798.8058310041</v>
       </c>
     </row>
   </sheetData>
@@ -7030,28 +7030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.7133486991304</v>
+        <v>232.537787782592</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.7295908886815</v>
+        <v>318.1684600871581</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.1280299337854</v>
+        <v>287.8029088087725</v>
       </c>
       <c r="AD2" t="n">
-        <v>203713.3486991304</v>
+        <v>232537.787782592</v>
       </c>
       <c r="AE2" t="n">
-        <v>278729.5908886815</v>
+        <v>318168.4600871581</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.917340825584753e-06</v>
+        <v>7.0638925078369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.640277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>252128.0299337854</v>
+        <v>287802.9088087725</v>
       </c>
     </row>
     <row r="3">
@@ -7136,28 +7136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.3042197635172</v>
+        <v>191.520601994376</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.7542350060244</v>
+        <v>262.0469369412238</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.2541817002645</v>
+        <v>237.0375450648158</v>
       </c>
       <c r="AD3" t="n">
-        <v>172304.2197635172</v>
+        <v>191520.601994376</v>
       </c>
       <c r="AE3" t="n">
-        <v>235754.2350060244</v>
+        <v>262046.9369412238</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.367555028655125e-06</v>
+        <v>7.875735254635894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.058333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>213254.1817002645</v>
+        <v>237037.5450648158</v>
       </c>
     </row>
     <row r="4">
@@ -7242,28 +7242,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.5023858190398</v>
+        <v>191.7187680498986</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.0253745456597</v>
+        <v>262.3180764808591</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.4994440627839</v>
+        <v>237.2828074273352</v>
       </c>
       <c r="AD4" t="n">
-        <v>172502.3858190398</v>
+        <v>191718.7680498986</v>
       </c>
       <c r="AE4" t="n">
-        <v>236025.3745456597</v>
+        <v>262318.0764808591</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.37773655126873e-06</v>
+        <v>7.894094949263151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.047222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>213499.4440627839</v>
+        <v>237282.8074273352</v>
       </c>
     </row>
   </sheetData>
@@ -7539,28 +7539,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.3212790400922</v>
+        <v>198.9058483379283</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.4093321439507</v>
+        <v>272.1517568025409</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.0376344797637</v>
+        <v>246.1779751007758</v>
       </c>
       <c r="AD2" t="n">
-        <v>171321.2790400921</v>
+        <v>198905.8483379283</v>
       </c>
       <c r="AE2" t="n">
-        <v>234409.3321439507</v>
+        <v>272151.7568025409</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.228222816864185e-06</v>
+        <v>7.888512255550979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.443055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>212037.6344797637</v>
+        <v>246177.9751007758</v>
       </c>
     </row>
     <row r="3">
@@ -7645,28 +7645,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.066272775006</v>
+        <v>198.6508420728421</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.0604213219775</v>
+        <v>271.8028459805677</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.7220232169402</v>
+        <v>245.8623638379522</v>
       </c>
       <c r="AD3" t="n">
-        <v>171066.272775006</v>
+        <v>198650.8420728421</v>
       </c>
       <c r="AE3" t="n">
-        <v>234060.4213219775</v>
+        <v>271802.8459805677</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.246948632200484e-06</v>
+        <v>7.923448641397629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.419444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>211722.0232169402</v>
+        <v>245862.3638379522</v>
       </c>
     </row>
   </sheetData>
@@ -13067,28 +13067,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.4207556369462</v>
+        <v>201.3212235764239</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.6501727630211</v>
+        <v>275.4565797626838</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.8737352222086</v>
+        <v>249.1673903959519</v>
       </c>
       <c r="AD2" t="n">
-        <v>174420.7556369462</v>
+        <v>201321.2235764239</v>
       </c>
       <c r="AE2" t="n">
-        <v>238650.1727630211</v>
+        <v>275456.5797626838</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.031566658900652e-06</v>
+        <v>7.752852190102576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.905555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>215873.7352222086</v>
+        <v>249167.3903959519</v>
       </c>
     </row>
     <row r="3">
@@ -13173,28 +13173,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.0347907880287</v>
+        <v>201.9352587275064</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.4903227460508</v>
+        <v>276.2967297457137</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.6337024700161</v>
+        <v>249.9273576437594</v>
       </c>
       <c r="AD3" t="n">
-        <v>175034.7907880287</v>
+        <v>201935.2587275064</v>
       </c>
       <c r="AE3" t="n">
-        <v>239490.3227460508</v>
+        <v>276296.7297457136</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.039280771480401e-06</v>
+        <v>7.767686714660558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.894444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>216633.7024700161</v>
+        <v>249927.3576437595</v>
       </c>
     </row>
   </sheetData>
@@ -13470,28 +13470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.8426316828799</v>
+        <v>252.45089868329</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.4301433238958</v>
+        <v>345.4144569259307</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.8529506979972</v>
+        <v>312.448585949258</v>
       </c>
       <c r="AD2" t="n">
-        <v>218842.6316828799</v>
+        <v>252450.89868329</v>
       </c>
       <c r="AE2" t="n">
-        <v>299430.1433238958</v>
+        <v>345414.4569259307</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.263264770624827e-06</v>
+        <v>6.730807701317714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.830555555555557</v>
       </c>
       <c r="AH2" t="n">
-        <v>270852.9506979972</v>
+        <v>312448.585949258</v>
       </c>
     </row>
   </sheetData>
@@ -13767,28 +13767,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.3759448112665</v>
+        <v>342.9315078374444</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.0923516928655</v>
+        <v>469.2140180935621</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.4765202330722</v>
+        <v>424.4328907527222</v>
       </c>
       <c r="AD2" t="n">
-        <v>303375.9448112665</v>
+        <v>342931.5078374444</v>
       </c>
       <c r="AE2" t="n">
-        <v>415092.3516928655</v>
+        <v>469214.0180935621</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.180487419974828e-06</v>
+        <v>5.587990933741326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.719444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>375476.5202330722</v>
+        <v>424432.8907527222</v>
       </c>
     </row>
     <row r="3">
@@ -13873,28 +13873,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.1501426971396</v>
+        <v>195.7954797531298</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.3339552650921</v>
+        <v>267.8960132850442</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.6375216398673</v>
+        <v>242.3283937716141</v>
       </c>
       <c r="AD3" t="n">
-        <v>166150.1426971396</v>
+        <v>195795.4797531298</v>
       </c>
       <c r="AE3" t="n">
-        <v>227333.9552650921</v>
+        <v>267896.0132850442</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.402674724128677e-06</v>
+        <v>7.735325814568967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.854166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>205637.5216398673</v>
+        <v>242328.3937716141</v>
       </c>
     </row>
     <row r="4">
@@ -13979,28 +13979,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.1256263830583</v>
+        <v>195.7709634390484</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.3004109625825</v>
+        <v>267.8624689825346</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.6071787585095</v>
+        <v>242.2980508902563</v>
       </c>
       <c r="AD4" t="n">
-        <v>166125.6263830583</v>
+        <v>195770.9634390484</v>
       </c>
       <c r="AE4" t="n">
-        <v>227300.4109625825</v>
+        <v>267862.4689825346</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.414368823979576e-06</v>
+        <v>7.755871886700768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.841666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>205607.1787585095</v>
+        <v>242298.0508902563</v>
       </c>
     </row>
   </sheetData>
@@ -14276,28 +14276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>501.8122348464138</v>
+        <v>542.9292027906477</v>
       </c>
       <c r="AB2" t="n">
-        <v>686.6016381102162</v>
+        <v>742.8596876041204</v>
       </c>
       <c r="AC2" t="n">
-        <v>621.0733414204278</v>
+        <v>671.9622016293022</v>
       </c>
       <c r="AD2" t="n">
-        <v>501812.2348464138</v>
+        <v>542929.2027906476</v>
       </c>
       <c r="AE2" t="n">
-        <v>686601.6381102162</v>
+        <v>742859.6876041204</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.417010772436915e-06</v>
+        <v>4.132819063396642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.519444444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>621073.3414204278</v>
+        <v>671962.2016293021</v>
       </c>
     </row>
     <row r="3">
@@ -14382,28 +14382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.5607939211505</v>
+        <v>217.2491733838252</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.2607087241509</v>
+        <v>297.2499033807114</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.8989849442471</v>
+        <v>268.8807897950037</v>
       </c>
       <c r="AD3" t="n">
-        <v>186560.7939211506</v>
+        <v>217249.1733838252</v>
       </c>
       <c r="AE3" t="n">
-        <v>255260.7087241509</v>
+        <v>297249.9033807114</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.201189082033468e-06</v>
+        <v>7.183565139701886e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.901388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>230898.9849442471</v>
+        <v>268880.7897950037</v>
       </c>
     </row>
     <row r="4">
@@ -14488,28 +14488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.2609699340929</v>
+        <v>204.9493493967675</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.4315469151296</v>
+        <v>280.4207415716902</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.6759747183965</v>
+        <v>253.6577795691531</v>
       </c>
       <c r="AD4" t="n">
-        <v>174260.9699340929</v>
+        <v>204949.3493967675</v>
       </c>
       <c r="AE4" t="n">
-        <v>238431.5469151296</v>
+        <v>280420.7415716902</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.373186658625505e-06</v>
+        <v>7.477661827852312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.708333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>215675.9747183965</v>
+        <v>253657.7795691531</v>
       </c>
     </row>
     <row r="5">
@@ -14594,28 +14594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.2252217127638</v>
+        <v>204.9136011754384</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.3826346216069</v>
+        <v>280.3718292781675</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.6317305455188</v>
+        <v>253.6135353962754</v>
       </c>
       <c r="AD5" t="n">
-        <v>174225.2217127637</v>
+        <v>204913.6011754384</v>
       </c>
       <c r="AE5" t="n">
-        <v>238382.6346216069</v>
+        <v>280371.8292781675</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.385493381778212e-06</v>
+        <v>7.498704952952733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.695833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>215631.7305455188</v>
+        <v>253613.5353962753</v>
       </c>
     </row>
   </sheetData>
@@ -14891,28 +14891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.3592882990785</v>
+        <v>317.0161773904187</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.1810174270329</v>
+        <v>433.7555196722525</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.1377764655907</v>
+        <v>392.3585016544274</v>
       </c>
       <c r="AD2" t="n">
-        <v>268359.2882990785</v>
+        <v>317016.1773904187</v>
       </c>
       <c r="AE2" t="n">
-        <v>367181.0174270329</v>
+        <v>433755.5196722525</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.663513106826912e-06</v>
+        <v>5.709135376660943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.934722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>332137.7764655906</v>
+        <v>392358.5016544274</v>
       </c>
     </row>
   </sheetData>
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.7825147724191</v>
+        <v>200.7466544970646</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.4086593380901</v>
+        <v>274.6704290001062</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.8461486925684</v>
+        <v>248.4562687587849</v>
       </c>
       <c r="AD2" t="n">
-        <v>172782.5147724191</v>
+        <v>200746.6544970647</v>
       </c>
       <c r="AE2" t="n">
-        <v>236408.6593380901</v>
+        <v>274670.4290001062</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.259347239986434e-06</v>
+        <v>7.847559933256546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>213846.1486925684</v>
+        <v>248456.2687587849</v>
       </c>
     </row>
     <row r="3">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.8051280044229</v>
+        <v>189.5617054631325</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.7031115259718</v>
+        <v>259.3666882867621</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.3988145663776</v>
+        <v>234.6130955801825</v>
       </c>
       <c r="AD3" t="n">
-        <v>170805.1280044229</v>
+        <v>189561.7054631325</v>
       </c>
       <c r="AE3" t="n">
-        <v>233703.1115259718</v>
+        <v>259366.6882867621</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.305724367470088e-06</v>
+        <v>7.933006661817098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.268055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>211398.8145663776</v>
+        <v>234613.0955801824</v>
       </c>
     </row>
   </sheetData>
@@ -15591,28 +15591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.8170534043601</v>
+        <v>269.5014286588292</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.8140753974195</v>
+        <v>368.7437442549204</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.673223289422</v>
+        <v>333.5513588383255</v>
       </c>
       <c r="AD2" t="n">
-        <v>230817.0534043601</v>
+        <v>269501.4286588292</v>
       </c>
       <c r="AE2" t="n">
-        <v>315814.0753974195</v>
+        <v>368743.7442549204</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.650081082490501e-06</v>
+        <v>6.520603477227923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.981944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>285673.2232894221</v>
+        <v>333551.3588383255</v>
       </c>
     </row>
     <row r="3">
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.8395235659624</v>
+        <v>192.8954754340975</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.1724642324953</v>
+        <v>263.9280994365852</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.77775887424</v>
+        <v>238.7391720518487</v>
       </c>
       <c r="AD3" t="n">
-        <v>163839.5235659624</v>
+        <v>192895.4754340975</v>
       </c>
       <c r="AE3" t="n">
-        <v>224172.4642324953</v>
+        <v>263928.0994365852</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.382895862189339e-06</v>
+        <v>7.829723601597294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.981944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>202777.75887424</v>
+        <v>238739.1720518487</v>
       </c>
     </row>
     <row r="4">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.9643541578206</v>
+        <v>193.0203060259557</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.3432629554127</v>
+        <v>264.0988981595025</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.9322568067597</v>
+        <v>238.8936699843684</v>
       </c>
       <c r="AD4" t="n">
-        <v>163964.3541578206</v>
+        <v>193020.3060259557</v>
       </c>
       <c r="AE4" t="n">
-        <v>224343.2629554126</v>
+        <v>264098.8981595025</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.393587002506765e-06</v>
+        <v>7.84882254355334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.969444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>202932.2568067597</v>
+        <v>238893.6699843684</v>
       </c>
     </row>
   </sheetData>
